--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveed\Documents\Programming\Themes\QWheels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428398EB-20C2-4116-8F0B-25FDD267CB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F2AA8E-338B-4CCA-A6D4-08A28F51F5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BE5680A-B01C-40A4-9DA5-30409DCF74DF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Product</t>
+  </si>
   <si>
     <t>Admin</t>
   </si>
@@ -106,6 +110,15 @@
   </si>
   <si>
     <t>Order History</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Cart</t>
   </si>
 </sst>
 </file>
@@ -201,22 +214,22 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845F106-3F1E-4097-806D-9641A0EBADBC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,159 +563,171 @@
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>22</v>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveed\Documents\Programming\Themes\QWheels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F2AA8E-338B-4CCA-A6D4-08A28F51F5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59087AEE-8023-4EA3-A298-97C7EFC8216C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BE5680A-B01C-40A4-9DA5-30409DCF74DF}"/>
   </bookViews>
@@ -16,23 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Product</t>
   </si>
@@ -119,6 +112,9 @@
   </si>
   <si>
     <t>Cart</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -550,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845F106-3F1E-4097-806D-9641A0EBADBC}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,9 +557,10 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -576,15 +573,18 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
@@ -593,35 +593,41 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
@@ -630,35 +636,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="8" t="s">
         <v>3</v>
@@ -667,28 +673,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveed\Documents\Programming\Themes\QWheels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59087AEE-8023-4EA3-A298-97C7EFC8216C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0066A49-7E05-4876-9621-C3FA84655330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BE5680A-B01C-40A4-9DA5-30409DCF74DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Product</t>
   </si>
@@ -60,69 +60,122 @@
     <t>Add Product</t>
   </si>
   <si>
-    <t>Remove Product</t>
-  </si>
-  <si>
-    <t>Modify Product</t>
-  </si>
-  <si>
-    <t>View Orders</t>
-  </si>
-  <si>
-    <t>Edit Order Status</t>
-  </si>
-  <si>
     <t>QWheels</t>
   </si>
   <si>
-    <t>Add to Cart</t>
-  </si>
-  <si>
     <t>Place Order</t>
   </si>
   <si>
-    <t>Email Verification</t>
-  </si>
-  <si>
-    <t>Signup</t>
-  </si>
-  <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>Sign Out</t>
-  </si>
-  <si>
     <t>Add to Wishlist</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Order Status</t>
-  </si>
-  <si>
-    <t>Order History</t>
-  </si>
-  <si>
-    <t>Reviews</t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
     <t>Cart</t>
   </si>
   <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Product_Img</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>ProfilePic</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Vendor App</t>
+  </si>
+  <si>
+    <t>User App</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DeliveryStatus</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,12 +216,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -179,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,28 +256,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845F106-3F1E-4097-806D-9641A0EBADBC}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,12 +675,21 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="10"/>
+    <col min="9" max="9" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="28" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -570,178 +697,455 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="G1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="AC2" s="10"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="G3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="AC4" s="10"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4" t="s">
+      <c r="G9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G10" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.35">
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="A1:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveed\Documents\Programming\Themes\QWheels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0066A49-7E05-4876-9621-C3FA84655330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61FA0C4-E391-4773-A865-92776454A57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BE5680A-B01C-40A4-9DA5-30409DCF74DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Product</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>email id 1</t>
+  </si>
+  <si>
+    <t>email id 2</t>
+  </si>
+  <si>
+    <t>qwheels.com/122</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>emailid</t>
   </si>
 </sst>
 </file>
@@ -297,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -306,15 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,6 +347,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845F106-3F1E-4097-806D-9641A0EBADBC}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,23 +699,25 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="10"/>
-    <col min="9" max="9" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="28" width="8.7265625" style="10"/>
+    <col min="7" max="7" width="11.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="7"/>
+    <col min="9" max="9" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="8.7265625" style="7"/>
+    <col min="20" max="20" width="15.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -709,179 +735,201 @@
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="19"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="11" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="AC2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="O3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="R3" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="AC4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="S6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="S7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
@@ -899,245 +947,245 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="AC13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="AC13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.35">
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
